--- a/output/SharedHealthSummary/condition-summary-1.xlsx
+++ b/output/SharedHealthSummary/condition-summary-1.xlsx
@@ -833,7 +833,7 @@
     <t>The anatomical location where this condition manifests itself.</t>
   </si>
   <si>
-    <t>Only used if not implicit in code found in Condition.code. If the use case requires attributes from the BodySite resource (e.g. to identify and track separately) then use the standard extension [body-site-instance](https://build.fhir.org/ig/hl7au/au-fhir-base/extension-body-site-instance.html).  May be a summary code, or a reference to a very precise definition of the location, or both.</t>
+    <t>Only used if not implicit in code found in Condition.code. If the use case requires attributes from the BodySite resource (e.g. to identify and track separately) then use the standard extension [body-site-instance](extension-body-site-instance.html).  May be a summary code, or a reference to a very precise definition of the location, or both.</t>
   </si>
   <si>
     <t>Codes describing anatomical locations. May include laterality.</t>

--- a/output/SharedHealthSummary/condition-summary-1.xlsx
+++ b/output/SharedHealthSummary/condition-summary-1.xlsx
@@ -833,7 +833,7 @@
     <t>The anatomical location where this condition manifests itself.</t>
   </si>
   <si>
-    <t>Only used if not implicit in code found in Condition.code. If the use case requires attributes from the BodySite resource (e.g. to identify and track separately) then use the standard extension [body-site-instance](extension-body-site-instance.html).  May be a summary code, or a reference to a very precise definition of the location, or both.</t>
+    <t>Only used if not implicit in code found in Condition.code. If the use case requires attributes from the BodySite resource (e.g. to identify and track separately) then use the standard extension [body-site-instance](https://build.fhir.org/ig/hl7au/au-fhir-base/extension-body-site-instance.html).  May be a summary code, or a reference to a very precise definition of the location, or both.</t>
   </si>
   <si>
     <t>Codes describing anatomical locations. May include laterality.</t>

--- a/output/SharedHealthSummary/condition-summary-1.xlsx
+++ b/output/SharedHealthSummary/condition-summary-1.xlsx
@@ -833,7 +833,7 @@
     <t>The anatomical location where this condition manifests itself.</t>
   </si>
   <si>
-    <t>Only used if not implicit in code found in Condition.code. If the use case requires attributes from the BodySite resource (e.g. to identify and track separately) then use the standard extension [body-site-instance](http://hl7.org/fhir/STU3/extension-body-site-instance.html).  May be a summary code, or a reference to a very precise definition of the location, or both.</t>
+    <t>Only used if not implicit in code found in Condition.code. If the use case requires attributes from the BodySite resource (e.g. to identify and track separately) then use the standard extension [body-site-instance](https://build.fhir.org/ig/hl7au/au-fhir-base/extension-body-site-instance.html).  May be a summary code, or a reference to a very precise definition of the location, or both.</t>
   </si>
   <si>
     <t>Codes describing anatomical locations. May include laterality.</t>

--- a/output/SharedHealthSummary/condition-summary-1.xlsx
+++ b/output/SharedHealthSummary/condition-summary-1.xlsx
@@ -1133,7 +1133,7 @@
     <t>Condition.evidence.code</t>
   </si>
   <si>
-    <t xml:space="preserve">Evidence manifestation/symptom </t>
+    <t>Evidence manifestation/symptom</t>
   </si>
   <si>
     <t>A manifestation or symptom that led to the recording of this condition.</t>

--- a/output/SharedHealthSummary/condition-summary-1.xlsx
+++ b/output/SharedHealthSummary/condition-summary-1.xlsx
@@ -833,7 +833,7 @@
     <t>The anatomical location where this condition manifests itself.</t>
   </si>
   <si>
-    <t>Only used if not implicit in code found in Condition.code. If the use case requires attributes from the BodySite resource (e.g. to identify and track separately) then use the standard extension [body-site-instance](https://build.fhir.org/ig/hl7au/au-fhir-base/extension-body-site-instance.html).  May be a summary code, or a reference to a very precise definition of the location, or both.</t>
+    <t>Only used if not implicit in code found in Condition.code. If the use case requires attributes from the BodySite resource (e.g. to identify and track separately) then use the standard extension [body-site-instance](http://hl7.org/fhir/STU3/extension-body-site-instance.html).  May be a summary code, or a reference to a very precise definition of the location, or both.</t>
   </si>
   <si>
     <t>Codes describing anatomical locations. May include laterality.</t>
@@ -1133,7 +1133,7 @@
     <t>Condition.evidence.code</t>
   </si>
   <si>
-    <t xml:space="preserve">Evidence manifestation/symptom </t>
+    <t>Evidence manifestation/symptom</t>
   </si>
   <si>
     <t>A manifestation or symptom that led to the recording of this condition.</t>

--- a/output/SharedHealthSummary/condition-summary-1.xlsx
+++ b/output/SharedHealthSummary/condition-summary-1.xlsx
@@ -1133,7 +1133,7 @@
     <t>Condition.evidence.code</t>
   </si>
   <si>
-    <t>Evidence manifestation/symptom</t>
+    <t xml:space="preserve">Evidence manifestation/symptom </t>
   </si>
   <si>
     <t>A manifestation or symptom that led to the recording of this condition.</t>

--- a/output/SharedHealthSummary/condition-summary-1.xlsx
+++ b/output/SharedHealthSummary/condition-summary-1.xlsx
@@ -190,7 +190,7 @@
     <t>Y</t>
   </si>
   <si>
-    <t xml:space="preserve">id {[]} {[]}
+    <t xml:space="preserve">id
 </t>
   </si>
   <si>
@@ -209,7 +209,7 @@
     <t>Condition.meta</t>
   </si>
   <si>
-    <t xml:space="preserve">Meta {[]} {[]}
+    <t xml:space="preserve">Meta
 </t>
   </si>
   <si>
@@ -225,7 +225,7 @@
     <t>Condition.implicitRules</t>
   </si>
   <si>
-    <t xml:space="preserve">uri {[]} {[]}
+    <t xml:space="preserve">uri
 </t>
   </si>
   <si>
@@ -245,7 +245,7 @@
     <t>Condition.language</t>
   </si>
   <si>
-    <t xml:space="preserve">code {[]} {[]}
+    <t xml:space="preserve">code
 </t>
   </si>
   <si>
@@ -277,7 +277,7 @@
 htmlxhtmldisplay</t>
   </si>
   <si>
-    <t xml:space="preserve">Narrative {[]} {[]}
+    <t xml:space="preserve">Narrative
 </t>
   </si>
   <si>
@@ -307,7 +307,7 @@
 anonymous resourcescontained resources</t>
   </si>
   <si>
-    <t xml:space="preserve">Resource {[]} {[]}
+    <t xml:space="preserve">Resource
 </t>
   </si>
   <si>
@@ -329,7 +329,7 @@
     <t>Condition.extension</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {[]} {[]}
+    <t xml:space="preserve">Extension
 </t>
   </si>
   <si>
@@ -352,7 +352,7 @@
     <t>recorder</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {[CanonicalType[http://hl7.org.au/fhir/StructureDefinition/recorder]]} {[]}
+    <t xml:space="preserve">Extension {http://hl7.org.au/fhir/StructureDefinition/recorder}
 </t>
   </si>
   <si>
@@ -392,7 +392,7 @@
     <t>Condition.identifier</t>
   </si>
   <si>
-    <t xml:space="preserve">Identifier {[]} {[]}
+    <t xml:space="preserve">Identifier
 </t>
   </si>
   <si>
@@ -462,7 +462,7 @@
 This element is labeled as a modifier because the status contains the code refuted and entered-in-error that mark the Condition as not currently valid.</t>
   </si>
   <si>
-    <t>&lt;valueCode xmlns="http://hl7.org/fhir" value="unknown"/&gt;</t>
+    <t>unknown</t>
   </si>
   <si>
     <t>The verification status to support or decline the clinical status of the condition or diagnosis.</t>
@@ -491,7 +491,7 @@
     <t>Condition.category</t>
   </si>
   <si>
-    <t xml:space="preserve">CodeableConcept {[]} {[]}
+    <t xml:space="preserve">CodeableConcept
 </t>
   </si>
   <si>
@@ -604,7 +604,7 @@
     <t>Condition.code.id</t>
   </si>
   <si>
-    <t xml:space="preserve">string {[]} {[]}
+    <t xml:space="preserve">string
 </t>
   </si>
   <si>
@@ -638,7 +638,7 @@
     <t>Condition.code.coding</t>
   </si>
   <si>
-    <t xml:space="preserve">Coding {[]} {[]}
+    <t xml:space="preserve">Coding
 </t>
   </si>
   <si>
@@ -697,7 +697,7 @@
     <t>Need to be unambiguous about the source of the definition of the symbol.</t>
   </si>
   <si>
-    <t>&lt;valueUri xmlns="http://hl7.org/fhir" value="http://snomed.info/sct"/&gt;</t>
+    <t>http://snomed.info/sct</t>
   </si>
   <si>
     <t>Coding.system</t>
@@ -775,7 +775,7 @@
     <t>Condition.code.coding.userSelected</t>
   </si>
   <si>
-    <t xml:space="preserve">boolean {[]} {[]}
+    <t xml:space="preserve">boolean
 </t>
   </si>
   <si>
@@ -873,7 +873,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://ns.electronichealth.net.au/ci/fhir/3.0/StructureDefinition/patient-ident-1]]}
+    <t xml:space="preserve">Reference(http://ns.electronichealth.net.au/ci/fhir/3.0/StructureDefinition/patient-ident-1)
 </t>
   </si>
   <si>
@@ -902,7 +902,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://hl7.org/fhir/StructureDefinition/Encounter], CanonicalType[http://hl7.org/fhir/StructureDefinition/EpisodeOfCare]]}
+    <t xml:space="preserve">Reference(Encounter|EpisodeOfCare)
 </t>
   </si>
   <si>
@@ -927,8 +927,8 @@
     <t>Condition.onset[x]</t>
   </si>
   <si>
-    <t>dateTime {[]} {[]}
-Age {[]} {[]}Period {[]} {[]}Range {[]} {[]}</t>
+    <t>dateTime
+AgePeriodRange</t>
   </si>
   <si>
     <t>Estimated or actual date,  date-time, or age</t>
@@ -952,8 +952,8 @@
     <t>Condition.abatement[x]</t>
   </si>
   <si>
-    <t>dateTime {[]} {[]}
-Age {[]} {[]}boolean {[]} {[]}Period {[]} {[]}Range {[]} {[]}</t>
+    <t>dateTime
+AgebooleanPeriodRange</t>
   </si>
   <si>
     <t>If/when in resolution/remission</t>
@@ -978,7 +978,7 @@
     <t>Condition.assertedDate</t>
   </si>
   <si>
-    <t xml:space="preserve">dateTime {[]} {[]}
+    <t xml:space="preserve">dateTime
 </t>
   </si>
   <si>
@@ -1003,7 +1003,7 @@
     <t>Condition.asserter</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://hl7.org/fhir/StructureDefinition/Practitioner], CanonicalType[http://hl7.org/fhir/StructureDefinition/Patient], CanonicalType[http://hl7.org/fhir/StructureDefinition/RelatedPerson]]}
+    <t xml:space="preserve">Reference(Practitioner|Patient|RelatedPerson)
 </t>
   </si>
   <si>
@@ -1025,7 +1025,7 @@
     <t>Condition.stage</t>
   </si>
   <si>
-    <t xml:space="preserve">BackboneElement {[]} {[]}
+    <t xml:space="preserve">BackboneElement
 </t>
   </si>
   <si>
@@ -1089,7 +1089,7 @@
     <t>Condition.stage.assessment</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://hl7.org/fhir/StructureDefinition/ClinicalImpression], CanonicalType[http://hl7.org/fhir/StructureDefinition/DiagnosticReport], CanonicalType[http://hl7.org/fhir/StructureDefinition/Observation]]}
+    <t xml:space="preserve">Reference(ClinicalImpression|DiagnosticReport|Observation)
 </t>
   </si>
   <si>
@@ -1182,7 +1182,7 @@
     <t>Condition.evidence.detail</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://hl7.org/fhir/StructureDefinition/Resource]]}
+    <t xml:space="preserve">Reference(Resource)
 </t>
   </si>
   <si>
@@ -1195,7 +1195,7 @@
     <t>Condition.note</t>
   </si>
   <si>
-    <t xml:space="preserve">Annotation {[]} {[]}
+    <t xml:space="preserve">Annotation
 </t>
   </si>
   <si>
@@ -1261,67 +1261,67 @@
     </border>
     <border>
       <right style="thin">
-        <color indexed="8"/>
+        <color indexed="23"/>
       </right>
     </border>
     <border>
       <right style="thin">
-        <color indexed="8"/>
+        <color indexed="23"/>
       </right>
       <bottom style="thin"/>
     </border>
     <border>
       <right style="thin">
-        <color indexed="8"/>
+        <color indexed="23"/>
       </right>
       <bottom style="thin">
-        <color indexed="8"/>
+        <color indexed="23"/>
       </bottom>
     </border>
     <border>
       <left style="thin"/>
       <right style="thin">
-        <color indexed="8"/>
+        <color indexed="23"/>
       </right>
       <bottom style="thin">
-        <color indexed="8"/>
+        <color indexed="23"/>
       </bottom>
     </border>
     <border>
       <left style="thin">
-        <color indexed="8"/>
+        <color indexed="23"/>
       </left>
       <right style="thin">
-        <color indexed="8"/>
+        <color indexed="23"/>
       </right>
       <bottom style="thin">
-        <color indexed="8"/>
+        <color indexed="23"/>
       </bottom>
     </border>
     <border>
       <left style="thin">
-        <color indexed="8"/>
+        <color indexed="23"/>
       </left>
       <right style="thin">
-        <color indexed="8"/>
+        <color indexed="23"/>
       </right>
       <top style="thin"/>
       <bottom style="thin">
-        <color indexed="8"/>
+        <color indexed="23"/>
       </bottom>
     </border>
     <border>
       <left style="thin">
-        <color indexed="8"/>
+        <color indexed="23"/>
       </left>
       <right style="thin">
-        <color indexed="8"/>
+        <color indexed="23"/>
       </right>
       <top style="thin">
-        <color indexed="8"/>
+        <color indexed="23"/>
       </top>
       <bottom style="thin">
-        <color indexed="8"/>
+        <color indexed="23"/>
       </bottom>
     </border>
   </borders>
@@ -1357,7 +1357,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AO58"/>
+  <dimension ref="A1:AN58"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1380,7 +1380,7 @@
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
-    <col min="15" max="15" width="54.8828125" customWidth="true" bestFit="true"/>
+    <col min="15" max="15" width="13.52734375" customWidth="true" bestFit="true"/>
     <col min="16" max="16" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>

--- a/output/SharedHealthSummary/condition-summary-1.xlsx
+++ b/output/SharedHealthSummary/condition-summary-1.xlsx
@@ -190,7 +190,7 @@
     <t>Y</t>
   </si>
   <si>
-    <t xml:space="preserve">id
+    <t xml:space="preserve">id {[]} {[]}
 </t>
   </si>
   <si>
@@ -209,7 +209,7 @@
     <t>Condition.meta</t>
   </si>
   <si>
-    <t xml:space="preserve">Meta
+    <t xml:space="preserve">Meta {[]} {[]}
 </t>
   </si>
   <si>
@@ -225,7 +225,7 @@
     <t>Condition.implicitRules</t>
   </si>
   <si>
-    <t xml:space="preserve">uri
+    <t xml:space="preserve">uri {[]} {[]}
 </t>
   </si>
   <si>
@@ -245,7 +245,7 @@
     <t>Condition.language</t>
   </si>
   <si>
-    <t xml:space="preserve">code
+    <t xml:space="preserve">code {[]} {[]}
 </t>
   </si>
   <si>
@@ -277,7 +277,7 @@
 htmlxhtmldisplay</t>
   </si>
   <si>
-    <t xml:space="preserve">Narrative
+    <t xml:space="preserve">Narrative {[]} {[]}
 </t>
   </si>
   <si>
@@ -307,7 +307,7 @@
 anonymous resourcescontained resources</t>
   </si>
   <si>
-    <t xml:space="preserve">Resource
+    <t xml:space="preserve">Resource {[]} {[]}
 </t>
   </si>
   <si>
@@ -329,7 +329,7 @@
     <t>Condition.extension</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension
+    <t xml:space="preserve">Extension {[]} {[]}
 </t>
   </si>
   <si>
@@ -352,7 +352,7 @@
     <t>recorder</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.org.au/fhir/StructureDefinition/recorder}
+    <t xml:space="preserve">Extension {[CanonicalType[http://hl7.org.au/fhir/StructureDefinition/recorder]]} {[]}
 </t>
   </si>
   <si>
@@ -392,7 +392,7 @@
     <t>Condition.identifier</t>
   </si>
   <si>
-    <t xml:space="preserve">Identifier
+    <t xml:space="preserve">Identifier {[]} {[]}
 </t>
   </si>
   <si>
@@ -462,7 +462,7 @@
 This element is labeled as a modifier because the status contains the code refuted and entered-in-error that mark the Condition as not currently valid.</t>
   </si>
   <si>
-    <t>unknown</t>
+    <t>&lt;valueCode xmlns="http://hl7.org/fhir" value="unknown"/&gt;</t>
   </si>
   <si>
     <t>The verification status to support or decline the clinical status of the condition or diagnosis.</t>
@@ -491,7 +491,7 @@
     <t>Condition.category</t>
   </si>
   <si>
-    <t xml:space="preserve">CodeableConcept
+    <t xml:space="preserve">CodeableConcept {[]} {[]}
 </t>
   </si>
   <si>
@@ -604,7 +604,7 @@
     <t>Condition.code.id</t>
   </si>
   <si>
-    <t xml:space="preserve">string
+    <t xml:space="preserve">string {[]} {[]}
 </t>
   </si>
   <si>
@@ -638,7 +638,7 @@
     <t>Condition.code.coding</t>
   </si>
   <si>
-    <t xml:space="preserve">Coding
+    <t xml:space="preserve">Coding {[]} {[]}
 </t>
   </si>
   <si>
@@ -697,7 +697,7 @@
     <t>Need to be unambiguous about the source of the definition of the symbol.</t>
   </si>
   <si>
-    <t>http://snomed.info/sct</t>
+    <t>&lt;valueUri xmlns="http://hl7.org/fhir" value="http://snomed.info/sct"/&gt;</t>
   </si>
   <si>
     <t>Coding.system</t>
@@ -775,7 +775,7 @@
     <t>Condition.code.coding.userSelected</t>
   </si>
   <si>
-    <t xml:space="preserve">boolean
+    <t xml:space="preserve">boolean {[]} {[]}
 </t>
   </si>
   <si>
@@ -873,7 +873,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://ns.electronichealth.net.au/ci/fhir/3.0/StructureDefinition/patient-ident-1)
+    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://ns.electronichealth.net.au/ci/fhir/3.0/StructureDefinition/patient-ident-1]]}
 </t>
   </si>
   <si>
@@ -902,7 +902,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Encounter|EpisodeOfCare)
+    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://hl7.org/fhir/StructureDefinition/Encounter], CanonicalType[http://hl7.org/fhir/StructureDefinition/EpisodeOfCare]]}
 </t>
   </si>
   <si>
@@ -927,8 +927,8 @@
     <t>Condition.onset[x]</t>
   </si>
   <si>
-    <t>dateTime
-AgePeriodRange</t>
+    <t>dateTime {[]} {[]}
+Age {[]} {[]}Period {[]} {[]}Range {[]} {[]}</t>
   </si>
   <si>
     <t>Estimated or actual date,  date-time, or age</t>
@@ -952,8 +952,8 @@
     <t>Condition.abatement[x]</t>
   </si>
   <si>
-    <t>dateTime
-AgebooleanPeriodRange</t>
+    <t>dateTime {[]} {[]}
+Age {[]} {[]}boolean {[]} {[]}Period {[]} {[]}Range {[]} {[]}</t>
   </si>
   <si>
     <t>If/when in resolution/remission</t>
@@ -978,7 +978,7 @@
     <t>Condition.assertedDate</t>
   </si>
   <si>
-    <t xml:space="preserve">dateTime
+    <t xml:space="preserve">dateTime {[]} {[]}
 </t>
   </si>
   <si>
@@ -1003,7 +1003,7 @@
     <t>Condition.asserter</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Practitioner|Patient|RelatedPerson)
+    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://hl7.org/fhir/StructureDefinition/Practitioner], CanonicalType[http://hl7.org/fhir/StructureDefinition/Patient], CanonicalType[http://hl7.org/fhir/StructureDefinition/RelatedPerson]]}
 </t>
   </si>
   <si>
@@ -1025,7 +1025,7 @@
     <t>Condition.stage</t>
   </si>
   <si>
-    <t xml:space="preserve">BackboneElement
+    <t xml:space="preserve">BackboneElement {[]} {[]}
 </t>
   </si>
   <si>
@@ -1089,7 +1089,7 @@
     <t>Condition.stage.assessment</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(ClinicalImpression|DiagnosticReport|Observation)
+    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://hl7.org/fhir/StructureDefinition/ClinicalImpression], CanonicalType[http://hl7.org/fhir/StructureDefinition/DiagnosticReport], CanonicalType[http://hl7.org/fhir/StructureDefinition/Observation]]}
 </t>
   </si>
   <si>
@@ -1182,7 +1182,7 @@
     <t>Condition.evidence.detail</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Resource)
+    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://hl7.org/fhir/StructureDefinition/Resource]]}
 </t>
   </si>
   <si>
@@ -1195,7 +1195,7 @@
     <t>Condition.note</t>
   </si>
   <si>
-    <t xml:space="preserve">Annotation
+    <t xml:space="preserve">Annotation {[]} {[]}
 </t>
   </si>
   <si>
@@ -1261,67 +1261,67 @@
     </border>
     <border>
       <right style="thin">
-        <color indexed="23"/>
+        <color indexed="8"/>
       </right>
     </border>
     <border>
       <right style="thin">
-        <color indexed="23"/>
+        <color indexed="8"/>
       </right>
       <bottom style="thin"/>
     </border>
     <border>
       <right style="thin">
-        <color indexed="23"/>
+        <color indexed="8"/>
       </right>
       <bottom style="thin">
-        <color indexed="23"/>
+        <color indexed="8"/>
       </bottom>
     </border>
     <border>
       <left style="thin"/>
       <right style="thin">
-        <color indexed="23"/>
+        <color indexed="8"/>
       </right>
       <bottom style="thin">
-        <color indexed="23"/>
+        <color indexed="8"/>
       </bottom>
     </border>
     <border>
       <left style="thin">
-        <color indexed="23"/>
+        <color indexed="8"/>
       </left>
       <right style="thin">
-        <color indexed="23"/>
+        <color indexed="8"/>
       </right>
       <bottom style="thin">
-        <color indexed="23"/>
+        <color indexed="8"/>
       </bottom>
     </border>
     <border>
       <left style="thin">
-        <color indexed="23"/>
+        <color indexed="8"/>
       </left>
       <right style="thin">
-        <color indexed="23"/>
+        <color indexed="8"/>
       </right>
       <top style="thin"/>
       <bottom style="thin">
-        <color indexed="23"/>
+        <color indexed="8"/>
       </bottom>
     </border>
     <border>
       <left style="thin">
-        <color indexed="23"/>
+        <color indexed="8"/>
       </left>
       <right style="thin">
-        <color indexed="23"/>
+        <color indexed="8"/>
       </right>
       <top style="thin">
-        <color indexed="23"/>
+        <color indexed="8"/>
       </top>
       <bottom style="thin">
-        <color indexed="23"/>
+        <color indexed="8"/>
       </bottom>
     </border>
   </borders>
@@ -1357,7 +1357,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AN58"/>
+  <dimension ref="A1:AO58"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1380,7 +1380,7 @@
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
-    <col min="15" max="15" width="13.52734375" customWidth="true" bestFit="true"/>
+    <col min="15" max="15" width="54.8828125" customWidth="true" bestFit="true"/>
     <col min="16" max="16" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>

--- a/output/SharedHealthSummary/condition-summary-1.xlsx
+++ b/output/SharedHealthSummary/condition-summary-1.xlsx
@@ -9,13 +9,13 @@
     <sheet name="Elements" r:id="rId3" sheetId="1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">Elements!$A$1:$AN$58</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">Elements!$A$1:$AN$41</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2082" uniqueCount="376">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1467" uniqueCount="319">
   <si>
     <t>Path</t>
   </si>
@@ -571,10 +571,10 @@
     <t>0..1 to account for primarily narrative only resources.</t>
   </si>
   <si>
-    <t>Identification of the condition or diagnosis.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/condition-code</t>
+    <t>Preferred SNOMED-CT Identification of the condition or diagnosis.</t>
+  </si>
+  <si>
+    <t>https://healthterminologies.gov.au/fhir/ValueSet/clinical-condition-1</t>
   </si>
   <si>
     <t>code 246090004 |Associated finding| (&lt; 404684003 |Clinical finding| MINUS
@@ -601,7 +601,34 @@
     <t>246090004</t>
   </si>
   <si>
-    <t>Condition.code.id</t>
+    <t>Condition.bodySite</t>
+  </si>
+  <si>
+    <t>Anatomical location, if relevant</t>
+  </si>
+  <si>
+    <t>The anatomical location where this condition manifests itself.</t>
+  </si>
+  <si>
+    <t>Only used if not implicit in code found in Condition.code. If the use case requires attributes from the BodySite resource (e.g. to identify and track separately) then use the standard extension [body-site-instance](http://hl7.org/fhir/STU3/extension-body-site-instance.html).  May be a summary code, or a reference to a very precise definition of the location, or both.</t>
+  </si>
+  <si>
+    <t>Codes describing anatomical locations. May include laterality.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/body-site</t>
+  </si>
+  <si>
+    <t>&lt; 442083009  |Anatomical or acquired body structure|</t>
+  </si>
+  <si>
+    <t>.targetBodySiteCode</t>
+  </si>
+  <si>
+    <t>363698007</t>
+  </si>
+  <si>
+    <t>Condition.bodySite.id</t>
   </si>
   <si>
     <t xml:space="preserve">string
@@ -620,7 +647,7 @@
     <t>n/a</t>
   </si>
   <si>
-    <t>Condition.code.extension</t>
+    <t>Condition.bodySite.extension</t>
   </si>
   <si>
     <t>Additional Content defined by implementations</t>
@@ -635,7 +662,7 @@
     <t>Element.extension</t>
   </si>
   <si>
-    <t>Condition.code.coding</t>
+    <t>Condition.bodySite.coding</t>
   </si>
   <si>
     <t xml:space="preserve">Coding
@@ -654,8 +681,7 @@
     <t>Allows for translations and alternate encodings within a code system.  Also supports communication of the same instance to systems requiring different encodings.</t>
   </si>
   <si>
-    <t xml:space="preserve">value:system}
-</t>
+    <t>https://healthterminologies.gov.au/fhir/ValueSet/body-site-1</t>
   </si>
   <si>
     <t>CodeableConcept.coding</t>
@@ -667,140 +693,7 @@
     <t>union(., ./translation)</t>
   </si>
   <si>
-    <t>snomedCondition</t>
-  </si>
-  <si>
-    <t>Clinical Condition (SNOMED CT)</t>
-  </si>
-  <si>
-    <t>https://healthterminologies.gov.au/fhir/ValueSet/clinical-condition-1</t>
-  </si>
-  <si>
-    <t>Condition.code.coding.id</t>
-  </si>
-  <si>
-    <t>Condition.code.coding.extension</t>
-  </si>
-  <si>
-    <t>Condition.code.coding.system</t>
-  </si>
-  <si>
-    <t>Identity of the terminology system</t>
-  </si>
-  <si>
-    <t>The identification of the code system that defines the meaning of the symbol in the code.</t>
-  </si>
-  <si>
-    <t>The URI may be an OID (urn:oid:...) or a UUID (urn:uuid:...).  OIDs and UUIDs SHALL be references to the HL7 OID registry. Otherwise, the URI should come from HL7's list of FHIR defined special URIs or it should de-reference to some definition that establish the system clearly and unambiguously.</t>
-  </si>
-  <si>
-    <t>Need to be unambiguous about the source of the definition of the symbol.</t>
-  </si>
-  <si>
-    <t>http://snomed.info/sct</t>
-  </si>
-  <si>
-    <t>Coding.system</t>
-  </si>
-  <si>
-    <t>C*E.3</t>
-  </si>
-  <si>
-    <t>./codeSystem</t>
-  </si>
-  <si>
-    <t>Condition.code.coding.version</t>
-  </si>
-  <si>
-    <t>Version of the system - if relevant</t>
-  </si>
-  <si>
-    <t>The version of the code system which was used when choosing this code. Note that a well-maintained code system does not need the version reported, because the meaning of codes is consistent across versions. However this cannot consistently be assured. and when the meaning is not guaranteed to be consistent, the version SHOULD be exchanged.</t>
-  </si>
-  <si>
-    <t>Where the terminology does not clearly define what string should be used to identify code system versions, the recommendation is to use the date (expressed in FHIR date format) on which that version was officially published as the version date.</t>
-  </si>
-  <si>
-    <t>Coding.version</t>
-  </si>
-  <si>
-    <t>C*E.7</t>
-  </si>
-  <si>
-    <t>./codeSystemVersion</t>
-  </si>
-  <si>
-    <t>Condition.code.coding.code</t>
-  </si>
-  <si>
-    <t>Symbol in syntax defined by the system</t>
-  </si>
-  <si>
-    <t>A symbol in syntax defined by the system. The symbol may be a predefined code or an expression in a syntax defined by the coding system (e.g. post-coordination).</t>
-  </si>
-  <si>
-    <t>Need to refer to a particular code in the system.</t>
-  </si>
-  <si>
-    <t>Coding.code</t>
-  </si>
-  <si>
-    <t>C*E.1</t>
-  </si>
-  <si>
-    <t>./code</t>
-  </si>
-  <si>
-    <t>Condition.code.coding.display</t>
-  </si>
-  <si>
-    <t>Representation defined by the system</t>
-  </si>
-  <si>
-    <t>A representation of the meaning of the code in the system, following the rules of the system.</t>
-  </si>
-  <si>
-    <t>Need to be able to carry a human-readable meaning of the code for readers that do not know  the system.</t>
-  </si>
-  <si>
-    <t>Coding.display</t>
-  </si>
-  <si>
-    <t>C*E.2 - but note this is not well followed</t>
-  </si>
-  <si>
-    <t>CV.displayName</t>
-  </si>
-  <si>
-    <t>Condition.code.coding.userSelected</t>
-  </si>
-  <si>
-    <t xml:space="preserve">boolean
-</t>
-  </si>
-  <si>
-    <t>If this coding was chosen directly by the user</t>
-  </si>
-  <si>
-    <t>Indicates that this coding was chosen by a user directly - i.e. off a pick list of available items (codes or displays).</t>
-  </si>
-  <si>
-    <t>Amongst a set of alternatives, a directly chosen code is the most appropriate starting point for new translations. There is some ambiguity about what exactly 'directly chosen' implies, and trading partner agreement may be needed to clarify the use of this element and its consequences more completely.</t>
-  </si>
-  <si>
-    <t>This has been identified as a clinical safety criterium - that this exact system/code pair was chosen explicitly, rather than inferred by the system based on some rules or language processing.</t>
-  </si>
-  <si>
-    <t>Coding.userSelected</t>
-  </si>
-  <si>
-    <t>Sometimes implied by being first</t>
-  </si>
-  <si>
-    <t>CD.codingRationale</t>
-  </si>
-  <si>
-    <t>Condition.code.text</t>
+    <t>Condition.bodySite.text</t>
   </si>
   <si>
     <t>Plain text representation of the concept</t>
@@ -822,48 +715,6 @@
   </si>
   <si>
     <t>./originalText[mediaType/code="text/plain"]/data</t>
-  </si>
-  <si>
-    <t>Condition.bodySite</t>
-  </si>
-  <si>
-    <t>Anatomical location, if relevant</t>
-  </si>
-  <si>
-    <t>The anatomical location where this condition manifests itself.</t>
-  </si>
-  <si>
-    <t>Only used if not implicit in code found in Condition.code. If the use case requires attributes from the BodySite resource (e.g. to identify and track separately) then use the standard extension [body-site-instance](http://hl7.org/fhir/STU3/extension-body-site-instance.html).  May be a summary code, or a reference to a very precise definition of the location, or both.</t>
-  </si>
-  <si>
-    <t>Codes describing anatomical locations. May include laterality.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/body-site</t>
-  </si>
-  <si>
-    <t>&lt; 442083009  |Anatomical or acquired body structure|</t>
-  </si>
-  <si>
-    <t>.targetBodySiteCode</t>
-  </si>
-  <si>
-    <t>363698007</t>
-  </si>
-  <si>
-    <t>Condition.bodySite.id</t>
-  </si>
-  <si>
-    <t>Condition.bodySite.extension</t>
-  </si>
-  <si>
-    <t>Condition.bodySite.coding</t>
-  </si>
-  <si>
-    <t>https://healthterminologies.gov.au/fhir/ValueSet/body-site-1</t>
-  </si>
-  <si>
-    <t>Condition.bodySite.text</t>
   </si>
   <si>
     <t>Condition.subject</t>
@@ -1139,10 +990,10 @@
     <t>A manifestation or symptom that led to the recording of this condition.</t>
   </si>
   <si>
-    <t>Codes that describe the manifestation or symptoms of a condition.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/manifestation-or-symptom</t>
+    <t>Preferred SNOMED-CT Codes that describe the manifestation or symptoms of a condition.</t>
+  </si>
+  <si>
+    <t>https://healthterminologies.gov.au/fhir/ValueSet/clinical-finding-1</t>
   </si>
   <si>
     <t xml:space="preserve">con-2
@@ -1153,30 +1004,6 @@
   </si>
   <si>
     <t>why</t>
-  </si>
-  <si>
-    <t>Condition.evidence.code.id</t>
-  </si>
-  <si>
-    <t>Condition.evidence.code.extension</t>
-  </si>
-  <si>
-    <t>Condition.evidence.code.coding</t>
-  </si>
-  <si>
-    <t>Evidence code defined by a terminology system</t>
-  </si>
-  <si>
-    <t>snomedFinding</t>
-  </si>
-  <si>
-    <t>Clinical Finding (SNOMED CT)</t>
-  </si>
-  <si>
-    <t>https://healthterminologies.gov.au/fhir/ValueSet/clinical-finding-1</t>
-  </si>
-  <si>
-    <t>Condition.evidence.code.text</t>
   </si>
   <si>
     <t>Condition.evidence.detail</t>
@@ -1357,7 +1184,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AN58"/>
+  <dimension ref="A1:AN41"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1367,7 +1194,7 @@
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
     <col min="1" max="1" width="35.19140625" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="16.92578125" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="11.1328125" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="38.81640625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="5.8984375" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="4.69921875" customWidth="true" bestFit="true"/>
@@ -3292,7 +3119,7 @@
         <v>41</v>
       </c>
       <c r="W17" t="s" s="2">
-        <v>151</v>
+        <v>161</v>
       </c>
       <c r="X17" t="s" s="2">
         <v>173</v>
@@ -3359,7 +3186,7 @@
         <v>42</v>
       </c>
       <c r="F18" t="s" s="2">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="G18" t="s" s="2">
         <v>41</v>
@@ -3368,18 +3195,20 @@
         <v>41</v>
       </c>
       <c r="I18" t="s" s="2">
-        <v>41</v>
+        <v>53</v>
       </c>
       <c r="J18" t="s" s="2">
+        <v>147</v>
+      </c>
+      <c r="K18" t="s" s="2">
         <v>181</v>
       </c>
-      <c r="K18" t="s" s="2">
+      <c r="L18" t="s" s="2">
         <v>182</v>
       </c>
-      <c r="L18" t="s" s="2">
+      <c r="M18" t="s" s="2">
         <v>183</v>
       </c>
-      <c r="M18" s="2"/>
       <c r="N18" s="2"/>
       <c r="O18" t="s" s="2">
         <v>41</v>
@@ -3404,13 +3233,13 @@
         <v>41</v>
       </c>
       <c r="W18" t="s" s="2">
-        <v>41</v>
+        <v>151</v>
       </c>
       <c r="X18" t="s" s="2">
-        <v>41</v>
+        <v>184</v>
       </c>
       <c r="Y18" t="s" s="2">
-        <v>41</v>
+        <v>185</v>
       </c>
       <c r="Z18" t="s" s="2">
         <v>41</v>
@@ -3428,13 +3257,13 @@
         <v>41</v>
       </c>
       <c r="AE18" t="s" s="2">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="AF18" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG18" t="s" s="2">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="AH18" t="s" s="2">
         <v>41</v>
@@ -3443,35 +3272,35 @@
         <v>41</v>
       </c>
       <c r="AJ18" t="s" s="2">
-        <v>41</v>
+        <v>186</v>
       </c>
       <c r="AK18" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AL18" t="s" s="2">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="AM18" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AN18" t="s" s="2">
-        <v>41</v>
+        <v>188</v>
       </c>
     </row>
     <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="B19" s="2"/>
       <c r="C19" t="s" s="2">
-        <v>110</v>
+        <v>41</v>
       </c>
       <c r="D19" s="2"/>
       <c r="E19" t="s" s="2">
         <v>42</v>
       </c>
       <c r="F19" t="s" s="2">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="G19" t="s" s="2">
         <v>41</v>
@@ -3483,17 +3312,15 @@
         <v>41</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>97</v>
+        <v>190</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>188</v>
-      </c>
-      <c r="M19" t="s" s="2">
-        <v>113</v>
-      </c>
+        <v>192</v>
+      </c>
+      <c r="M19" s="2"/>
       <c r="N19" s="2"/>
       <c r="O19" t="s" s="2">
         <v>41</v>
@@ -3530,25 +3357,25 @@
         <v>41</v>
       </c>
       <c r="AA19" t="s" s="2">
-        <v>100</v>
+        <v>41</v>
       </c>
       <c r="AB19" t="s" s="2">
-        <v>189</v>
+        <v>41</v>
       </c>
       <c r="AC19" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AD19" t="s" s="2">
-        <v>101</v>
+        <v>41</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="AF19" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG19" t="s" s="2">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="AH19" t="s" s="2">
         <v>41</v>
@@ -3563,7 +3390,7 @@
         <v>41</v>
       </c>
       <c r="AL19" t="s" s="2">
-        <v>185</v>
+        <v>194</v>
       </c>
       <c r="AM19" t="s" s="2">
         <v>41</v>
@@ -3574,11 +3401,11 @@
     </row>
     <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="B20" s="2"/>
       <c r="C20" t="s" s="2">
-        <v>41</v>
+        <v>110</v>
       </c>
       <c r="D20" s="2"/>
       <c r="E20" t="s" s="2">
@@ -3594,23 +3421,21 @@
         <v>41</v>
       </c>
       <c r="I20" t="s" s="2">
-        <v>53</v>
+        <v>41</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>192</v>
+        <v>97</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>195</v>
-      </c>
-      <c r="N20" t="s" s="2">
-        <v>196</v>
-      </c>
+        <v>113</v>
+      </c>
+      <c r="N20" s="2"/>
       <c r="O20" t="s" s="2">
         <v>41</v>
       </c>
@@ -3646,9 +3471,11 @@
         <v>41</v>
       </c>
       <c r="AA20" t="s" s="2">
-        <v>197</v>
-      </c>
-      <c r="AB20" s="2"/>
+        <v>100</v>
+      </c>
+      <c r="AB20" t="s" s="2">
+        <v>198</v>
+      </c>
       <c r="AC20" t="s" s="2">
         <v>41</v>
       </c>
@@ -3656,7 +3483,7 @@
         <v>101</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="AF20" t="s" s="2">
         <v>42</v>
@@ -3674,10 +3501,10 @@
         <v>41</v>
       </c>
       <c r="AK20" t="s" s="2">
-        <v>199</v>
+        <v>41</v>
       </c>
       <c r="AL20" t="s" s="2">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="AM20" t="s" s="2">
         <v>41</v>
@@ -3688,11 +3515,9 @@
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>191</v>
-      </c>
-      <c r="B21" t="s" s="2">
-        <v>201</v>
-      </c>
+        <v>200</v>
+      </c>
+      <c r="B21" s="2"/>
       <c r="C21" t="s" s="2">
         <v>41</v>
       </c>
@@ -3713,19 +3538,19 @@
         <v>53</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>192</v>
+        <v>201</v>
       </c>
       <c r="K21" t="s" s="2">
         <v>202</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>194</v>
+        <v>203</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>195</v>
+        <v>204</v>
       </c>
       <c r="N21" t="s" s="2">
-        <v>196</v>
+        <v>205</v>
       </c>
       <c r="O21" t="s" s="2">
         <v>41</v>
@@ -3754,7 +3579,7 @@
       </c>
       <c r="X21" s="2"/>
       <c r="Y21" t="s" s="2">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="Z21" t="s" s="2">
         <v>41</v>
@@ -3772,7 +3597,7 @@
         <v>41</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>198</v>
+        <v>207</v>
       </c>
       <c r="AF21" t="s" s="2">
         <v>42</v>
@@ -3790,10 +3615,10 @@
         <v>41</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>199</v>
+        <v>208</v>
       </c>
       <c r="AL21" t="s" s="2">
-        <v>200</v>
+        <v>209</v>
       </c>
       <c r="AM21" t="s" s="2">
         <v>41</v>
@@ -3804,7 +3629,7 @@
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>204</v>
+        <v>210</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" t="s" s="2">
@@ -3824,19 +3649,23 @@
         <v>41</v>
       </c>
       <c r="I22" t="s" s="2">
-        <v>41</v>
+        <v>53</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>181</v>
+        <v>190</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>182</v>
+        <v>211</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>183</v>
-      </c>
-      <c r="M22" s="2"/>
-      <c r="N22" s="2"/>
+        <v>212</v>
+      </c>
+      <c r="M22" t="s" s="2">
+        <v>213</v>
+      </c>
+      <c r="N22" t="s" s="2">
+        <v>214</v>
+      </c>
       <c r="O22" t="s" s="2">
         <v>41</v>
       </c>
@@ -3884,7 +3713,7 @@
         <v>41</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>184</v>
+        <v>215</v>
       </c>
       <c r="AF22" t="s" s="2">
         <v>42</v>
@@ -3902,10 +3731,10 @@
         <v>41</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>41</v>
+        <v>216</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>185</v>
+        <v>217</v>
       </c>
       <c r="AM22" t="s" s="2">
         <v>41</v>
@@ -3914,43 +3743,43 @@
         <v>41</v>
       </c>
     </row>
-    <row r="23" hidden="true">
+    <row r="23">
       <c r="A23" t="s" s="2">
-        <v>205</v>
+        <v>218</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" t="s" s="2">
-        <v>110</v>
+        <v>219</v>
       </c>
       <c r="D23" s="2"/>
       <c r="E23" t="s" s="2">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="F23" t="s" s="2">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="G23" t="s" s="2">
-        <v>41</v>
+        <v>53</v>
       </c>
       <c r="H23" t="s" s="2">
         <v>41</v>
       </c>
       <c r="I23" t="s" s="2">
-        <v>41</v>
+        <v>53</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>97</v>
+        <v>220</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>187</v>
+        <v>221</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>188</v>
-      </c>
-      <c r="M23" t="s" s="2">
-        <v>113</v>
-      </c>
-      <c r="N23" s="2"/>
+        <v>222</v>
+      </c>
+      <c r="M23" s="2"/>
+      <c r="N23" t="s" s="2">
+        <v>223</v>
+      </c>
       <c r="O23" t="s" s="2">
         <v>41</v>
       </c>
@@ -3986,25 +3815,25 @@
         <v>41</v>
       </c>
       <c r="AA23" t="s" s="2">
-        <v>100</v>
+        <v>41</v>
       </c>
       <c r="AB23" t="s" s="2">
-        <v>189</v>
+        <v>41</v>
       </c>
       <c r="AC23" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AD23" t="s" s="2">
-        <v>101</v>
+        <v>41</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>190</v>
+        <v>218</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="AG23" t="s" s="2">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="AH23" t="s" s="2">
         <v>41</v>
@@ -4016,13 +3845,13 @@
         <v>41</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>41</v>
+        <v>224</v>
       </c>
       <c r="AL23" t="s" s="2">
-        <v>185</v>
+        <v>225</v>
       </c>
       <c r="AM23" t="s" s="2">
-        <v>41</v>
+        <v>226</v>
       </c>
       <c r="AN23" t="s" s="2">
         <v>41</v>
@@ -4030,15 +3859,15 @@
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>206</v>
+        <v>227</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
-        <v>41</v>
+        <v>228</v>
       </c>
       <c r="D24" s="2"/>
       <c r="E24" t="s" s="2">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="F24" t="s" s="2">
         <v>52</v>
@@ -4053,26 +3882,24 @@
         <v>53</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>65</v>
+        <v>229</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>207</v>
+        <v>230</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>208</v>
+        <v>231</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>209</v>
-      </c>
-      <c r="N24" t="s" s="2">
-        <v>210</v>
-      </c>
+        <v>232</v>
+      </c>
+      <c r="N24" s="2"/>
       <c r="O24" t="s" s="2">
         <v>41</v>
       </c>
       <c r="P24" s="2"/>
       <c r="Q24" t="s" s="2">
-        <v>211</v>
+        <v>41</v>
       </c>
       <c r="R24" t="s" s="2">
         <v>41</v>
@@ -4114,7 +3941,7 @@
         <v>41</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>212</v>
+        <v>227</v>
       </c>
       <c r="AF24" t="s" s="2">
         <v>42</v>
@@ -4132,21 +3959,21 @@
         <v>41</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>213</v>
+        <v>233</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>214</v>
+        <v>234</v>
       </c>
       <c r="AM24" t="s" s="2">
-        <v>41</v>
+        <v>235</v>
       </c>
       <c r="AN24" t="s" s="2">
         <v>41</v>
       </c>
     </row>
-    <row r="25" hidden="true">
+    <row r="25">
       <c r="A25" t="s" s="2">
-        <v>215</v>
+        <v>236</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
@@ -4160,7 +3987,7 @@
         <v>52</v>
       </c>
       <c r="G25" t="s" s="2">
-        <v>41</v>
+        <v>53</v>
       </c>
       <c r="H25" t="s" s="2">
         <v>41</v>
@@ -4169,16 +3996,16 @@
         <v>53</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>181</v>
+        <v>237</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>216</v>
+        <v>238</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>217</v>
+        <v>239</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>218</v>
+        <v>240</v>
       </c>
       <c r="N25" s="2"/>
       <c r="O25" t="s" s="2">
@@ -4228,7 +4055,7 @@
         <v>41</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>219</v>
+        <v>236</v>
       </c>
       <c r="AF25" t="s" s="2">
         <v>42</v>
@@ -4246,21 +4073,21 @@
         <v>41</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>220</v>
+        <v>241</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>221</v>
+        <v>242</v>
       </c>
       <c r="AM25" t="s" s="2">
-        <v>41</v>
+        <v>243</v>
       </c>
       <c r="AN25" t="s" s="2">
         <v>41</v>
       </c>
     </row>
-    <row r="26" hidden="true">
+    <row r="26">
       <c r="A26" t="s" s="2">
-        <v>222</v>
+        <v>244</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
@@ -4274,27 +4101,27 @@
         <v>52</v>
       </c>
       <c r="G26" t="s" s="2">
-        <v>41</v>
+        <v>53</v>
       </c>
       <c r="H26" t="s" s="2">
         <v>41</v>
       </c>
       <c r="I26" t="s" s="2">
-        <v>53</v>
+        <v>41</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>71</v>
+        <v>245</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>223</v>
+        <v>246</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>224</v>
-      </c>
-      <c r="M26" s="2"/>
-      <c r="N26" t="s" s="2">
-        <v>225</v>
-      </c>
+        <v>247</v>
+      </c>
+      <c r="M26" t="s" s="2">
+        <v>248</v>
+      </c>
+      <c r="N26" s="2"/>
       <c r="O26" t="s" s="2">
         <v>41</v>
       </c>
@@ -4342,7 +4169,7 @@
         <v>41</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>226</v>
+        <v>244</v>
       </c>
       <c r="AF26" t="s" s="2">
         <v>42</v>
@@ -4351,7 +4178,7 @@
         <v>52</v>
       </c>
       <c r="AH26" t="s" s="2">
-        <v>41</v>
+        <v>249</v>
       </c>
       <c r="AI26" t="s" s="2">
         <v>41</v>
@@ -4360,13 +4187,13 @@
         <v>41</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>227</v>
+        <v>41</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>228</v>
+        <v>250</v>
       </c>
       <c r="AM26" t="s" s="2">
-        <v>41</v>
+        <v>251</v>
       </c>
       <c r="AN26" t="s" s="2">
         <v>41</v>
@@ -4374,7 +4201,7 @@
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>229</v>
+        <v>252</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
@@ -4397,18 +4224,18 @@
         <v>53</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>181</v>
+        <v>253</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>230</v>
+        <v>254</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>231</v>
-      </c>
-      <c r="M27" s="2"/>
-      <c r="N27" t="s" s="2">
-        <v>232</v>
-      </c>
+        <v>255</v>
+      </c>
+      <c r="M27" t="s" s="2">
+        <v>256</v>
+      </c>
+      <c r="N27" s="2"/>
       <c r="O27" t="s" s="2">
         <v>41</v>
       </c>
@@ -4456,7 +4283,7 @@
         <v>41</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>233</v>
+        <v>252</v>
       </c>
       <c r="AF27" t="s" s="2">
         <v>42</v>
@@ -4474,13 +4301,13 @@
         <v>41</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>234</v>
+        <v>257</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>235</v>
+        <v>258</v>
       </c>
       <c r="AM27" t="s" s="2">
-        <v>41</v>
+        <v>259</v>
       </c>
       <c r="AN27" t="s" s="2">
         <v>41</v>
@@ -4488,7 +4315,7 @@
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>236</v>
+        <v>260</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
@@ -4511,20 +4338,16 @@
         <v>53</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>237</v>
+        <v>261</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>238</v>
+        <v>262</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>239</v>
-      </c>
-      <c r="M28" t="s" s="2">
-        <v>240</v>
-      </c>
-      <c r="N28" t="s" s="2">
-        <v>241</v>
-      </c>
+        <v>263</v>
+      </c>
+      <c r="M28" s="2"/>
+      <c r="N28" s="2"/>
       <c r="O28" t="s" s="2">
         <v>41</v>
       </c>
@@ -4572,7 +4395,7 @@
         <v>41</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>242</v>
+        <v>260</v>
       </c>
       <c r="AF28" t="s" s="2">
         <v>42</v>
@@ -4590,13 +4413,13 @@
         <v>41</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>243</v>
+        <v>264</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>244</v>
+        <v>265</v>
       </c>
       <c r="AM28" t="s" s="2">
-        <v>41</v>
+        <v>266</v>
       </c>
       <c r="AN28" t="s" s="2">
         <v>41</v>
@@ -4604,7 +4427,7 @@
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>245</v>
+        <v>267</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
@@ -4624,23 +4447,19 @@
         <v>41</v>
       </c>
       <c r="I29" t="s" s="2">
-        <v>53</v>
+        <v>41</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>181</v>
+        <v>268</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>246</v>
+        <v>269</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>247</v>
-      </c>
-      <c r="M29" t="s" s="2">
-        <v>248</v>
-      </c>
-      <c r="N29" t="s" s="2">
-        <v>249</v>
-      </c>
+        <v>270</v>
+      </c>
+      <c r="M29" s="2"/>
+      <c r="N29" s="2"/>
       <c r="O29" t="s" s="2">
         <v>41</v>
       </c>
@@ -4688,7 +4507,7 @@
         <v>41</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>250</v>
+        <v>267</v>
       </c>
       <c r="AF29" t="s" s="2">
         <v>42</v>
@@ -4700,16 +4519,16 @@
         <v>41</v>
       </c>
       <c r="AI29" t="s" s="2">
-        <v>41</v>
+        <v>271</v>
       </c>
       <c r="AJ29" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>251</v>
+        <v>41</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>252</v>
+        <v>272</v>
       </c>
       <c r="AM29" t="s" s="2">
         <v>41</v>
@@ -4720,7 +4539,7 @@
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>253</v>
+        <v>273</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
@@ -4731,7 +4550,7 @@
         <v>42</v>
       </c>
       <c r="F30" t="s" s="2">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="G30" t="s" s="2">
         <v>41</v>
@@ -4740,20 +4559,18 @@
         <v>41</v>
       </c>
       <c r="I30" t="s" s="2">
-        <v>53</v>
+        <v>41</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>147</v>
+        <v>190</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>254</v>
+        <v>191</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>255</v>
-      </c>
-      <c r="M30" t="s" s="2">
-        <v>256</v>
-      </c>
+        <v>192</v>
+      </c>
+      <c r="M30" s="2"/>
       <c r="N30" s="2"/>
       <c r="O30" t="s" s="2">
         <v>41</v>
@@ -4778,13 +4595,13 @@
         <v>41</v>
       </c>
       <c r="W30" t="s" s="2">
-        <v>151</v>
+        <v>41</v>
       </c>
       <c r="X30" t="s" s="2">
-        <v>257</v>
+        <v>41</v>
       </c>
       <c r="Y30" t="s" s="2">
-        <v>258</v>
+        <v>41</v>
       </c>
       <c r="Z30" t="s" s="2">
         <v>41</v>
@@ -4802,13 +4619,13 @@
         <v>41</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>253</v>
+        <v>193</v>
       </c>
       <c r="AF30" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG30" t="s" s="2">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="AH30" t="s" s="2">
         <v>41</v>
@@ -4817,35 +4634,35 @@
         <v>41</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>259</v>
+        <v>41</v>
       </c>
       <c r="AK30" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>260</v>
+        <v>194</v>
       </c>
       <c r="AM30" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AN30" t="s" s="2">
-        <v>261</v>
+        <v>41</v>
       </c>
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>262</v>
+        <v>274</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
-        <v>41</v>
+        <v>110</v>
       </c>
       <c r="D31" s="2"/>
       <c r="E31" t="s" s="2">
         <v>42</v>
       </c>
       <c r="F31" t="s" s="2">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="G31" t="s" s="2">
         <v>41</v>
@@ -4857,15 +4674,17 @@
         <v>41</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>181</v>
+        <v>97</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>182</v>
+        <v>196</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>183</v>
-      </c>
-      <c r="M31" s="2"/>
+        <v>197</v>
+      </c>
+      <c r="M31" t="s" s="2">
+        <v>113</v>
+      </c>
       <c r="N31" s="2"/>
       <c r="O31" t="s" s="2">
         <v>41</v>
@@ -4914,13 +4733,13 @@
         <v>41</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>184</v>
+        <v>199</v>
       </c>
       <c r="AF31" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG31" t="s" s="2">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="AH31" t="s" s="2">
         <v>41</v>
@@ -4935,7 +4754,7 @@
         <v>41</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>185</v>
+        <v>194</v>
       </c>
       <c r="AM31" t="s" s="2">
         <v>41</v>
@@ -4946,11 +4765,11 @@
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>263</v>
+        <v>275</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
-        <v>110</v>
+        <v>276</v>
       </c>
       <c r="D32" s="2"/>
       <c r="E32" t="s" s="2">
@@ -4963,19 +4782,19 @@
         <v>41</v>
       </c>
       <c r="H32" t="s" s="2">
-        <v>41</v>
+        <v>53</v>
       </c>
       <c r="I32" t="s" s="2">
-        <v>41</v>
+        <v>53</v>
       </c>
       <c r="J32" t="s" s="2">
         <v>97</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>187</v>
+        <v>111</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>188</v>
+        <v>277</v>
       </c>
       <c r="M32" t="s" s="2">
         <v>113</v>
@@ -5016,19 +4835,19 @@
         <v>41</v>
       </c>
       <c r="AA32" t="s" s="2">
-        <v>100</v>
+        <v>41</v>
       </c>
       <c r="AB32" t="s" s="2">
-        <v>189</v>
+        <v>41</v>
       </c>
       <c r="AC32" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AD32" t="s" s="2">
-        <v>101</v>
+        <v>41</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>190</v>
+        <v>278</v>
       </c>
       <c r="AF32" t="s" s="2">
         <v>42</v>
@@ -5049,7 +4868,7 @@
         <v>41</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>185</v>
+        <v>95</v>
       </c>
       <c r="AM32" t="s" s="2">
         <v>41</v>
@@ -5060,7 +4879,7 @@
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>264</v>
+        <v>279</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
@@ -5080,23 +4899,19 @@
         <v>41</v>
       </c>
       <c r="I33" t="s" s="2">
-        <v>53</v>
+        <v>41</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>192</v>
+        <v>147</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>193</v>
+        <v>280</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>194</v>
-      </c>
-      <c r="M33" t="s" s="2">
-        <v>195</v>
-      </c>
-      <c r="N33" t="s" s="2">
-        <v>196</v>
-      </c>
+        <v>281</v>
+      </c>
+      <c r="M33" s="2"/>
+      <c r="N33" s="2"/>
       <c r="O33" t="s" s="2">
         <v>41</v>
       </c>
@@ -5120,11 +4935,13 @@
         <v>41</v>
       </c>
       <c r="W33" t="s" s="2">
-        <v>126</v>
-      </c>
-      <c r="X33" s="2"/>
+        <v>151</v>
+      </c>
+      <c r="X33" t="s" s="2">
+        <v>282</v>
+      </c>
       <c r="Y33" t="s" s="2">
-        <v>265</v>
+        <v>283</v>
       </c>
       <c r="Z33" t="s" s="2">
         <v>41</v>
@@ -5142,28 +4959,28 @@
         <v>41</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>198</v>
+        <v>279</v>
       </c>
       <c r="AF33" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG33" t="s" s="2">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="AH33" t="s" s="2">
-        <v>41</v>
+        <v>284</v>
       </c>
       <c r="AI33" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>41</v>
+        <v>285</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>199</v>
+        <v>286</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>200</v>
+        <v>177</v>
       </c>
       <c r="AM33" t="s" s="2">
         <v>41</v>
@@ -5174,7 +4991,7 @@
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>266</v>
+        <v>287</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
@@ -5185,7 +5002,7 @@
         <v>42</v>
       </c>
       <c r="F34" t="s" s="2">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="G34" t="s" s="2">
         <v>41</v>
@@ -5194,23 +5011,19 @@
         <v>41</v>
       </c>
       <c r="I34" t="s" s="2">
-        <v>53</v>
+        <v>41</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>181</v>
+        <v>288</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>246</v>
+        <v>289</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>247</v>
-      </c>
-      <c r="M34" t="s" s="2">
-        <v>248</v>
-      </c>
-      <c r="N34" t="s" s="2">
-        <v>249</v>
-      </c>
+        <v>290</v>
+      </c>
+      <c r="M34" s="2"/>
+      <c r="N34" s="2"/>
       <c r="O34" t="s" s="2">
         <v>41</v>
       </c>
@@ -5258,16 +5071,16 @@
         <v>41</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>250</v>
+        <v>287</v>
       </c>
       <c r="AF34" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG34" t="s" s="2">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="AH34" t="s" s="2">
-        <v>41</v>
+        <v>284</v>
       </c>
       <c r="AI34" t="s" s="2">
         <v>41</v>
@@ -5276,10 +5089,10 @@
         <v>41</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>251</v>
+        <v>41</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>252</v>
+        <v>291</v>
       </c>
       <c r="AM34" t="s" s="2">
         <v>41</v>
@@ -5288,43 +5101,43 @@
         <v>41</v>
       </c>
     </row>
-    <row r="35">
+    <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>267</v>
+        <v>292</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
-        <v>268</v>
+        <v>41</v>
       </c>
       <c r="D35" s="2"/>
       <c r="E35" t="s" s="2">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="F35" t="s" s="2">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="G35" t="s" s="2">
-        <v>53</v>
+        <v>41</v>
       </c>
       <c r="H35" t="s" s="2">
         <v>41</v>
       </c>
       <c r="I35" t="s" s="2">
-        <v>53</v>
+        <v>41</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>270</v>
+        <v>293</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>271</v>
-      </c>
-      <c r="M35" s="2"/>
-      <c r="N35" t="s" s="2">
-        <v>272</v>
-      </c>
+        <v>294</v>
+      </c>
+      <c r="M35" t="s" s="2">
+        <v>295</v>
+      </c>
+      <c r="N35" s="2"/>
       <c r="O35" t="s" s="2">
         <v>41</v>
       </c>
@@ -5372,31 +5185,31 @@
         <v>41</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>267</v>
+        <v>292</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="AG35" t="s" s="2">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="AH35" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AI35" t="s" s="2">
-        <v>41</v>
+        <v>296</v>
       </c>
       <c r="AJ35" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>273</v>
+        <v>41</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>274</v>
+        <v>297</v>
       </c>
       <c r="AM35" t="s" s="2">
-        <v>275</v>
+        <v>41</v>
       </c>
       <c r="AN35" t="s" s="2">
         <v>41</v>
@@ -5404,11 +5217,11 @@
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>276</v>
+        <v>298</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
-        <v>277</v>
+        <v>41</v>
       </c>
       <c r="D36" s="2"/>
       <c r="E36" t="s" s="2">
@@ -5424,20 +5237,18 @@
         <v>41</v>
       </c>
       <c r="I36" t="s" s="2">
-        <v>53</v>
+        <v>41</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>278</v>
+        <v>190</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>279</v>
+        <v>191</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>280</v>
-      </c>
-      <c r="M36" t="s" s="2">
-        <v>281</v>
-      </c>
+        <v>192</v>
+      </c>
+      <c r="M36" s="2"/>
       <c r="N36" s="2"/>
       <c r="O36" t="s" s="2">
         <v>41</v>
@@ -5486,7 +5297,7 @@
         <v>41</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>276</v>
+        <v>193</v>
       </c>
       <c r="AF36" t="s" s="2">
         <v>42</v>
@@ -5504,53 +5315,53 @@
         <v>41</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>282</v>
+        <v>41</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>283</v>
+        <v>194</v>
       </c>
       <c r="AM36" t="s" s="2">
-        <v>284</v>
+        <v>41</v>
       </c>
       <c r="AN36" t="s" s="2">
         <v>41</v>
       </c>
     </row>
-    <row r="37">
+    <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>285</v>
+        <v>299</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
-        <v>41</v>
+        <v>110</v>
       </c>
       <c r="D37" s="2"/>
       <c r="E37" t="s" s="2">
         <v>42</v>
       </c>
       <c r="F37" t="s" s="2">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="G37" t="s" s="2">
-        <v>53</v>
+        <v>41</v>
       </c>
       <c r="H37" t="s" s="2">
         <v>41</v>
       </c>
       <c r="I37" t="s" s="2">
-        <v>53</v>
+        <v>41</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>286</v>
+        <v>97</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>287</v>
+        <v>196</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>288</v>
+        <v>197</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>289</v>
+        <v>113</v>
       </c>
       <c r="N37" s="2"/>
       <c r="O37" t="s" s="2">
@@ -5600,13 +5411,13 @@
         <v>41</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>285</v>
+        <v>199</v>
       </c>
       <c r="AF37" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG37" t="s" s="2">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="AH37" t="s" s="2">
         <v>41</v>
@@ -5618,53 +5429,53 @@
         <v>41</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>290</v>
+        <v>41</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>291</v>
+        <v>194</v>
       </c>
       <c r="AM37" t="s" s="2">
-        <v>292</v>
+        <v>41</v>
       </c>
       <c r="AN37" t="s" s="2">
         <v>41</v>
       </c>
     </row>
-    <row r="38">
+    <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>293</v>
+        <v>300</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
-        <v>41</v>
+        <v>276</v>
       </c>
       <c r="D38" s="2"/>
       <c r="E38" t="s" s="2">
         <v>42</v>
       </c>
       <c r="F38" t="s" s="2">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="G38" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="H38" t="s" s="2">
         <v>53</v>
       </c>
-      <c r="H38" t="s" s="2">
-        <v>41</v>
-      </c>
       <c r="I38" t="s" s="2">
-        <v>41</v>
+        <v>53</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>294</v>
+        <v>97</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>295</v>
+        <v>111</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>296</v>
+        <v>277</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>297</v>
+        <v>113</v>
       </c>
       <c r="N38" s="2"/>
       <c r="O38" t="s" s="2">
@@ -5714,16 +5525,16 @@
         <v>41</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>293</v>
+        <v>278</v>
       </c>
       <c r="AF38" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG38" t="s" s="2">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="AH38" t="s" s="2">
-        <v>298</v>
+        <v>41</v>
       </c>
       <c r="AI38" t="s" s="2">
         <v>41</v>
@@ -5735,10 +5546,10 @@
         <v>41</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>299</v>
+        <v>95</v>
       </c>
       <c r="AM38" t="s" s="2">
-        <v>300</v>
+        <v>41</v>
       </c>
       <c r="AN38" t="s" s="2">
         <v>41</v>
@@ -5757,7 +5568,7 @@
         <v>42</v>
       </c>
       <c r="F39" t="s" s="2">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="G39" t="s" s="2">
         <v>41</v>
@@ -5769,17 +5580,15 @@
         <v>53</v>
       </c>
       <c r="J39" t="s" s="2">
+        <v>147</v>
+      </c>
+      <c r="K39" t="s" s="2">
         <v>302</v>
       </c>
-      <c r="K39" t="s" s="2">
+      <c r="L39" t="s" s="2">
         <v>303</v>
       </c>
-      <c r="L39" t="s" s="2">
-        <v>304</v>
-      </c>
-      <c r="M39" t="s" s="2">
-        <v>305</v>
-      </c>
+      <c r="M39" s="2"/>
       <c r="N39" s="2"/>
       <c r="O39" t="s" s="2">
         <v>41</v>
@@ -5804,13 +5613,13 @@
         <v>41</v>
       </c>
       <c r="W39" t="s" s="2">
-        <v>41</v>
+        <v>161</v>
       </c>
       <c r="X39" t="s" s="2">
-        <v>41</v>
+        <v>304</v>
       </c>
       <c r="Y39" t="s" s="2">
-        <v>41</v>
+        <v>305</v>
       </c>
       <c r="Z39" t="s" s="2">
         <v>41</v>
@@ -5834,19 +5643,19 @@
         <v>42</v>
       </c>
       <c r="AG39" t="s" s="2">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="AH39" t="s" s="2">
-        <v>41</v>
+        <v>306</v>
       </c>
       <c r="AI39" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>41</v>
+        <v>153</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>306</v>
+        <v>41</v>
       </c>
       <c r="AL39" t="s" s="2">
         <v>307</v>
@@ -5871,7 +5680,7 @@
         <v>42</v>
       </c>
       <c r="F40" t="s" s="2">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="G40" t="s" s="2">
         <v>41</v>
@@ -5946,10 +5755,10 @@
         <v>42</v>
       </c>
       <c r="AG40" t="s" s="2">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="AH40" t="s" s="2">
-        <v>41</v>
+        <v>306</v>
       </c>
       <c r="AI40" t="s" s="2">
         <v>41</v>
@@ -5958,21 +5767,21 @@
         <v>41</v>
       </c>
       <c r="AK40" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AL40" t="s" s="2">
+        <v>291</v>
+      </c>
+      <c r="AM40" t="s" s="2">
+        <v>308</v>
+      </c>
+      <c r="AN40" t="s" s="2">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="s" s="2">
         <v>313</v>
-      </c>
-      <c r="AL40" t="s" s="2">
-        <v>314</v>
-      </c>
-      <c r="AM40" t="s" s="2">
-        <v>315</v>
-      </c>
-      <c r="AN40" t="s" s="2">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="41" hidden="true">
-      <c r="A41" t="s" s="2">
-        <v>316</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
@@ -5983,10 +5792,10 @@
         <v>42</v>
       </c>
       <c r="F41" t="s" s="2">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="G41" t="s" s="2">
-        <v>41</v>
+        <v>53</v>
       </c>
       <c r="H41" t="s" s="2">
         <v>41</v>
@@ -5995,13 +5804,13 @@
         <v>41</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="M41" s="2"/>
       <c r="N41" s="2"/>
@@ -6052,1964 +5861,38 @@
         <v>41</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="AF41" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG41" t="s" s="2">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="AH41" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AI41" t="s" s="2">
-        <v>320</v>
+        <v>41</v>
       </c>
       <c r="AJ41" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>41</v>
+        <v>317</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="AM41" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AN41" t="s" s="2">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="42" hidden="true">
-      <c r="A42" t="s" s="2">
-        <v>322</v>
-      </c>
-      <c r="B42" s="2"/>
-      <c r="C42" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="D42" s="2"/>
-      <c r="E42" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="F42" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="G42" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="H42" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="I42" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="J42" t="s" s="2">
-        <v>181</v>
-      </c>
-      <c r="K42" t="s" s="2">
-        <v>182</v>
-      </c>
-      <c r="L42" t="s" s="2">
-        <v>183</v>
-      </c>
-      <c r="M42" s="2"/>
-      <c r="N42" s="2"/>
-      <c r="O42" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="P42" s="2"/>
-      <c r="Q42" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="R42" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="S42" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="T42" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="U42" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="V42" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="W42" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="X42" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="Y42" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="Z42" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AA42" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AB42" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AC42" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AD42" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AE42" t="s" s="2">
-        <v>184</v>
-      </c>
-      <c r="AF42" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AG42" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="AH42" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AI42" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AJ42" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AK42" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AL42" t="s" s="2">
-        <v>185</v>
-      </c>
-      <c r="AM42" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AN42" t="s" s="2">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="43" hidden="true">
-      <c r="A43" t="s" s="2">
-        <v>323</v>
-      </c>
-      <c r="B43" s="2"/>
-      <c r="C43" t="s" s="2">
-        <v>110</v>
-      </c>
-      <c r="D43" s="2"/>
-      <c r="E43" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="F43" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="G43" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="H43" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="I43" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="J43" t="s" s="2">
-        <v>97</v>
-      </c>
-      <c r="K43" t="s" s="2">
-        <v>187</v>
-      </c>
-      <c r="L43" t="s" s="2">
-        <v>188</v>
-      </c>
-      <c r="M43" t="s" s="2">
-        <v>113</v>
-      </c>
-      <c r="N43" s="2"/>
-      <c r="O43" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="P43" s="2"/>
-      <c r="Q43" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="R43" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="S43" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="T43" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="U43" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="V43" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="W43" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="X43" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="Y43" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="Z43" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AA43" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AB43" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AC43" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AD43" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AE43" t="s" s="2">
-        <v>190</v>
-      </c>
-      <c r="AF43" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AG43" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AH43" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AI43" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AJ43" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AK43" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AL43" t="s" s="2">
-        <v>185</v>
-      </c>
-      <c r="AM43" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AN43" t="s" s="2">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="44" hidden="true">
-      <c r="A44" t="s" s="2">
-        <v>324</v>
-      </c>
-      <c r="B44" s="2"/>
-      <c r="C44" t="s" s="2">
-        <v>325</v>
-      </c>
-      <c r="D44" s="2"/>
-      <c r="E44" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="F44" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="G44" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="H44" t="s" s="2">
-        <v>53</v>
-      </c>
-      <c r="I44" t="s" s="2">
-        <v>53</v>
-      </c>
-      <c r="J44" t="s" s="2">
-        <v>97</v>
-      </c>
-      <c r="K44" t="s" s="2">
-        <v>111</v>
-      </c>
-      <c r="L44" t="s" s="2">
-        <v>326</v>
-      </c>
-      <c r="M44" t="s" s="2">
-        <v>113</v>
-      </c>
-      <c r="N44" s="2"/>
-      <c r="O44" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="P44" s="2"/>
-      <c r="Q44" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="R44" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="S44" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="T44" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="U44" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="V44" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="W44" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="X44" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="Y44" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="Z44" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AA44" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AB44" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AC44" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AD44" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AE44" t="s" s="2">
-        <v>327</v>
-      </c>
-      <c r="AF44" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AG44" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AH44" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AI44" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AJ44" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AK44" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AL44" t="s" s="2">
-        <v>95</v>
-      </c>
-      <c r="AM44" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AN44" t="s" s="2">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="45" hidden="true">
-      <c r="A45" t="s" s="2">
-        <v>328</v>
-      </c>
-      <c r="B45" s="2"/>
-      <c r="C45" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="D45" s="2"/>
-      <c r="E45" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="F45" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="G45" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="H45" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="I45" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="J45" t="s" s="2">
-        <v>147</v>
-      </c>
-      <c r="K45" t="s" s="2">
-        <v>329</v>
-      </c>
-      <c r="L45" t="s" s="2">
-        <v>330</v>
-      </c>
-      <c r="M45" s="2"/>
-      <c r="N45" s="2"/>
-      <c r="O45" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="P45" s="2"/>
-      <c r="Q45" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="R45" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="S45" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="T45" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="U45" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="V45" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="W45" t="s" s="2">
-        <v>151</v>
-      </c>
-      <c r="X45" t="s" s="2">
-        <v>331</v>
-      </c>
-      <c r="Y45" t="s" s="2">
-        <v>332</v>
-      </c>
-      <c r="Z45" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AA45" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AB45" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AC45" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AD45" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AE45" t="s" s="2">
-        <v>328</v>
-      </c>
-      <c r="AF45" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AG45" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="AH45" t="s" s="2">
-        <v>333</v>
-      </c>
-      <c r="AI45" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AJ45" t="s" s="2">
-        <v>334</v>
-      </c>
-      <c r="AK45" t="s" s="2">
-        <v>335</v>
-      </c>
-      <c r="AL45" t="s" s="2">
-        <v>177</v>
-      </c>
-      <c r="AM45" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AN45" t="s" s="2">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="46" hidden="true">
-      <c r="A46" t="s" s="2">
-        <v>336</v>
-      </c>
-      <c r="B46" s="2"/>
-      <c r="C46" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="D46" s="2"/>
-      <c r="E46" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="F46" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="G46" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="H46" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="I46" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="J46" t="s" s="2">
-        <v>337</v>
-      </c>
-      <c r="K46" t="s" s="2">
-        <v>338</v>
-      </c>
-      <c r="L46" t="s" s="2">
-        <v>339</v>
-      </c>
-      <c r="M46" s="2"/>
-      <c r="N46" s="2"/>
-      <c r="O46" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="P46" s="2"/>
-      <c r="Q46" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="R46" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="S46" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="T46" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="U46" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="V46" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="W46" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="X46" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="Y46" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="Z46" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AA46" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AB46" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AC46" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AD46" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AE46" t="s" s="2">
-        <v>336</v>
-      </c>
-      <c r="AF46" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AG46" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AH46" t="s" s="2">
-        <v>333</v>
-      </c>
-      <c r="AI46" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AJ46" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AK46" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AL46" t="s" s="2">
-        <v>340</v>
-      </c>
-      <c r="AM46" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AN46" t="s" s="2">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="47" hidden="true">
-      <c r="A47" t="s" s="2">
-        <v>341</v>
-      </c>
-      <c r="B47" s="2"/>
-      <c r="C47" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="D47" s="2"/>
-      <c r="E47" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="F47" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="G47" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="H47" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="I47" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="J47" t="s" s="2">
-        <v>317</v>
-      </c>
-      <c r="K47" t="s" s="2">
-        <v>342</v>
-      </c>
-      <c r="L47" t="s" s="2">
-        <v>343</v>
-      </c>
-      <c r="M47" t="s" s="2">
-        <v>344</v>
-      </c>
-      <c r="N47" s="2"/>
-      <c r="O47" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="P47" s="2"/>
-      <c r="Q47" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="R47" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="S47" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="T47" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="U47" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="V47" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="W47" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="X47" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="Y47" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="Z47" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AA47" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AB47" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AC47" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AD47" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AE47" t="s" s="2">
-        <v>341</v>
-      </c>
-      <c r="AF47" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AG47" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AH47" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AI47" t="s" s="2">
-        <v>345</v>
-      </c>
-      <c r="AJ47" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AK47" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AL47" t="s" s="2">
-        <v>346</v>
-      </c>
-      <c r="AM47" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AN47" t="s" s="2">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="48" hidden="true">
-      <c r="A48" t="s" s="2">
-        <v>347</v>
-      </c>
-      <c r="B48" s="2"/>
-      <c r="C48" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="D48" s="2"/>
-      <c r="E48" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="F48" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="G48" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="H48" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="I48" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="J48" t="s" s="2">
-        <v>181</v>
-      </c>
-      <c r="K48" t="s" s="2">
-        <v>182</v>
-      </c>
-      <c r="L48" t="s" s="2">
-        <v>183</v>
-      </c>
-      <c r="M48" s="2"/>
-      <c r="N48" s="2"/>
-      <c r="O48" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="P48" s="2"/>
-      <c r="Q48" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="R48" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="S48" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="T48" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="U48" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="V48" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="W48" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="X48" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="Y48" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="Z48" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AA48" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AB48" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AC48" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AD48" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AE48" t="s" s="2">
-        <v>184</v>
-      </c>
-      <c r="AF48" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AG48" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="AH48" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AI48" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AJ48" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AK48" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AL48" t="s" s="2">
-        <v>185</v>
-      </c>
-      <c r="AM48" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AN48" t="s" s="2">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="49" hidden="true">
-      <c r="A49" t="s" s="2">
-        <v>348</v>
-      </c>
-      <c r="B49" s="2"/>
-      <c r="C49" t="s" s="2">
-        <v>110</v>
-      </c>
-      <c r="D49" s="2"/>
-      <c r="E49" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="F49" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="G49" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="H49" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="I49" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="J49" t="s" s="2">
-        <v>97</v>
-      </c>
-      <c r="K49" t="s" s="2">
-        <v>187</v>
-      </c>
-      <c r="L49" t="s" s="2">
-        <v>188</v>
-      </c>
-      <c r="M49" t="s" s="2">
-        <v>113</v>
-      </c>
-      <c r="N49" s="2"/>
-      <c r="O49" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="P49" s="2"/>
-      <c r="Q49" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="R49" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="S49" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="T49" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="U49" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="V49" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="W49" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="X49" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="Y49" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="Z49" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AA49" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AB49" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AC49" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AD49" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AE49" t="s" s="2">
-        <v>190</v>
-      </c>
-      <c r="AF49" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AG49" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AH49" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AI49" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AJ49" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AK49" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AL49" t="s" s="2">
-        <v>185</v>
-      </c>
-      <c r="AM49" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AN49" t="s" s="2">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="50" hidden="true">
-      <c r="A50" t="s" s="2">
-        <v>349</v>
-      </c>
-      <c r="B50" s="2"/>
-      <c r="C50" t="s" s="2">
-        <v>325</v>
-      </c>
-      <c r="D50" s="2"/>
-      <c r="E50" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="F50" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="G50" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="H50" t="s" s="2">
-        <v>53</v>
-      </c>
-      <c r="I50" t="s" s="2">
-        <v>53</v>
-      </c>
-      <c r="J50" t="s" s="2">
-        <v>97</v>
-      </c>
-      <c r="K50" t="s" s="2">
-        <v>111</v>
-      </c>
-      <c r="L50" t="s" s="2">
-        <v>326</v>
-      </c>
-      <c r="M50" t="s" s="2">
-        <v>113</v>
-      </c>
-      <c r="N50" s="2"/>
-      <c r="O50" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="P50" s="2"/>
-      <c r="Q50" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="R50" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="S50" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="T50" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="U50" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="V50" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="W50" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="X50" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="Y50" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="Z50" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AA50" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AB50" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AC50" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AD50" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AE50" t="s" s="2">
-        <v>327</v>
-      </c>
-      <c r="AF50" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AG50" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AH50" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AI50" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AJ50" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AK50" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AL50" t="s" s="2">
-        <v>95</v>
-      </c>
-      <c r="AM50" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AN50" t="s" s="2">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="51" hidden="true">
-      <c r="A51" t="s" s="2">
-        <v>350</v>
-      </c>
-      <c r="B51" s="2"/>
-      <c r="C51" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="D51" s="2"/>
-      <c r="E51" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="F51" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="G51" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="H51" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="I51" t="s" s="2">
-        <v>53</v>
-      </c>
-      <c r="J51" t="s" s="2">
-        <v>147</v>
-      </c>
-      <c r="K51" t="s" s="2">
-        <v>351</v>
-      </c>
-      <c r="L51" t="s" s="2">
-        <v>352</v>
-      </c>
-      <c r="M51" s="2"/>
-      <c r="N51" s="2"/>
-      <c r="O51" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="P51" s="2"/>
-      <c r="Q51" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="R51" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="S51" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="T51" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="U51" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="V51" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="W51" t="s" s="2">
-        <v>151</v>
-      </c>
-      <c r="X51" t="s" s="2">
-        <v>353</v>
-      </c>
-      <c r="Y51" t="s" s="2">
-        <v>354</v>
-      </c>
-      <c r="Z51" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AA51" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AB51" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AC51" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AD51" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AE51" t="s" s="2">
-        <v>350</v>
-      </c>
-      <c r="AF51" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AG51" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AH51" t="s" s="2">
-        <v>355</v>
-      </c>
-      <c r="AI51" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AJ51" t="s" s="2">
-        <v>153</v>
-      </c>
-      <c r="AK51" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AL51" t="s" s="2">
-        <v>356</v>
-      </c>
-      <c r="AM51" t="s" s="2">
-        <v>357</v>
-      </c>
-      <c r="AN51" t="s" s="2">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="52" hidden="true">
-      <c r="A52" t="s" s="2">
-        <v>358</v>
-      </c>
-      <c r="B52" s="2"/>
-      <c r="C52" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="D52" s="2"/>
-      <c r="E52" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="F52" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="G52" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="H52" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="I52" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="J52" t="s" s="2">
-        <v>181</v>
-      </c>
-      <c r="K52" t="s" s="2">
-        <v>182</v>
-      </c>
-      <c r="L52" t="s" s="2">
-        <v>183</v>
-      </c>
-      <c r="M52" s="2"/>
-      <c r="N52" s="2"/>
-      <c r="O52" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="P52" s="2"/>
-      <c r="Q52" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="R52" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="S52" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="T52" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="U52" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="V52" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="W52" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="X52" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="Y52" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="Z52" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AA52" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AB52" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AC52" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AD52" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AE52" t="s" s="2">
-        <v>184</v>
-      </c>
-      <c r="AF52" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AG52" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="AH52" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AI52" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AJ52" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AK52" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AL52" t="s" s="2">
-        <v>185</v>
-      </c>
-      <c r="AM52" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AN52" t="s" s="2">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="53" hidden="true">
-      <c r="A53" t="s" s="2">
-        <v>359</v>
-      </c>
-      <c r="B53" s="2"/>
-      <c r="C53" t="s" s="2">
-        <v>110</v>
-      </c>
-      <c r="D53" s="2"/>
-      <c r="E53" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="F53" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="G53" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="H53" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="I53" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="J53" t="s" s="2">
-        <v>97</v>
-      </c>
-      <c r="K53" t="s" s="2">
-        <v>187</v>
-      </c>
-      <c r="L53" t="s" s="2">
-        <v>188</v>
-      </c>
-      <c r="M53" t="s" s="2">
-        <v>113</v>
-      </c>
-      <c r="N53" s="2"/>
-      <c r="O53" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="P53" s="2"/>
-      <c r="Q53" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="R53" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="S53" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="T53" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="U53" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="V53" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="W53" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="X53" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="Y53" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="Z53" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AA53" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="AB53" t="s" s="2">
-        <v>189</v>
-      </c>
-      <c r="AC53" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AD53" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="AE53" t="s" s="2">
-        <v>190</v>
-      </c>
-      <c r="AF53" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AG53" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AH53" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AI53" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AJ53" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AK53" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AL53" t="s" s="2">
-        <v>185</v>
-      </c>
-      <c r="AM53" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AN53" t="s" s="2">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="54" hidden="true">
-      <c r="A54" t="s" s="2">
-        <v>360</v>
-      </c>
-      <c r="B54" s="2"/>
-      <c r="C54" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="D54" s="2"/>
-      <c r="E54" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="F54" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="G54" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="H54" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="I54" t="s" s="2">
-        <v>53</v>
-      </c>
-      <c r="J54" t="s" s="2">
-        <v>192</v>
-      </c>
-      <c r="K54" t="s" s="2">
-        <v>361</v>
-      </c>
-      <c r="L54" t="s" s="2">
-        <v>194</v>
-      </c>
-      <c r="M54" t="s" s="2">
-        <v>195</v>
-      </c>
-      <c r="N54" t="s" s="2">
-        <v>196</v>
-      </c>
-      <c r="O54" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="P54" s="2"/>
-      <c r="Q54" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="R54" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="S54" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="T54" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="U54" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="V54" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="W54" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="X54" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="Y54" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="Z54" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AA54" t="s" s="2">
-        <v>197</v>
-      </c>
-      <c r="AB54" s="2"/>
-      <c r="AC54" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AD54" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="AE54" t="s" s="2">
-        <v>198</v>
-      </c>
-      <c r="AF54" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AG54" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AH54" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AI54" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AJ54" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AK54" t="s" s="2">
-        <v>199</v>
-      </c>
-      <c r="AL54" t="s" s="2">
-        <v>200</v>
-      </c>
-      <c r="AM54" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AN54" t="s" s="2">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="55" hidden="true">
-      <c r="A55" t="s" s="2">
-        <v>360</v>
-      </c>
-      <c r="B55" t="s" s="2">
-        <v>362</v>
-      </c>
-      <c r="C55" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="D55" s="2"/>
-      <c r="E55" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="F55" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="G55" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="H55" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="I55" t="s" s="2">
-        <v>53</v>
-      </c>
-      <c r="J55" t="s" s="2">
-        <v>192</v>
-      </c>
-      <c r="K55" t="s" s="2">
-        <v>363</v>
-      </c>
-      <c r="L55" t="s" s="2">
-        <v>194</v>
-      </c>
-      <c r="M55" t="s" s="2">
-        <v>195</v>
-      </c>
-      <c r="N55" t="s" s="2">
-        <v>196</v>
-      </c>
-      <c r="O55" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="P55" s="2"/>
-      <c r="Q55" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="R55" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="S55" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="T55" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="U55" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="V55" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="W55" t="s" s="2">
-        <v>126</v>
-      </c>
-      <c r="X55" s="2"/>
-      <c r="Y55" t="s" s="2">
-        <v>364</v>
-      </c>
-      <c r="Z55" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AA55" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AB55" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AC55" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AD55" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AE55" t="s" s="2">
-        <v>198</v>
-      </c>
-      <c r="AF55" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AG55" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AH55" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AI55" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AJ55" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AK55" t="s" s="2">
-        <v>199</v>
-      </c>
-      <c r="AL55" t="s" s="2">
-        <v>200</v>
-      </c>
-      <c r="AM55" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AN55" t="s" s="2">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="56" hidden="true">
-      <c r="A56" t="s" s="2">
-        <v>365</v>
-      </c>
-      <c r="B56" s="2"/>
-      <c r="C56" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="D56" s="2"/>
-      <c r="E56" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="F56" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="G56" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="H56" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="I56" t="s" s="2">
-        <v>53</v>
-      </c>
-      <c r="J56" t="s" s="2">
-        <v>181</v>
-      </c>
-      <c r="K56" t="s" s="2">
-        <v>246</v>
-      </c>
-      <c r="L56" t="s" s="2">
-        <v>247</v>
-      </c>
-      <c r="M56" t="s" s="2">
-        <v>248</v>
-      </c>
-      <c r="N56" t="s" s="2">
-        <v>249</v>
-      </c>
-      <c r="O56" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="P56" s="2"/>
-      <c r="Q56" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="R56" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="S56" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="T56" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="U56" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="V56" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="W56" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="X56" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="Y56" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="Z56" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AA56" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AB56" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AC56" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AD56" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AE56" t="s" s="2">
-        <v>250</v>
-      </c>
-      <c r="AF56" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AG56" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="AH56" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AI56" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AJ56" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AK56" t="s" s="2">
-        <v>251</v>
-      </c>
-      <c r="AL56" t="s" s="2">
-        <v>252</v>
-      </c>
-      <c r="AM56" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AN56" t="s" s="2">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="57" hidden="true">
-      <c r="A57" t="s" s="2">
-        <v>366</v>
-      </c>
-      <c r="B57" s="2"/>
-      <c r="C57" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="D57" s="2"/>
-      <c r="E57" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="F57" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="G57" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="H57" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="I57" t="s" s="2">
-        <v>53</v>
-      </c>
-      <c r="J57" t="s" s="2">
-        <v>367</v>
-      </c>
-      <c r="K57" t="s" s="2">
-        <v>368</v>
-      </c>
-      <c r="L57" t="s" s="2">
-        <v>369</v>
-      </c>
-      <c r="M57" s="2"/>
-      <c r="N57" s="2"/>
-      <c r="O57" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="P57" s="2"/>
-      <c r="Q57" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="R57" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="S57" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="T57" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="U57" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="V57" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="W57" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="X57" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="Y57" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="Z57" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AA57" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AB57" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AC57" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AD57" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AE57" t="s" s="2">
-        <v>366</v>
-      </c>
-      <c r="AF57" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AG57" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AH57" t="s" s="2">
-        <v>355</v>
-      </c>
-      <c r="AI57" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AJ57" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AK57" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AL57" t="s" s="2">
-        <v>340</v>
-      </c>
-      <c r="AM57" t="s" s="2">
-        <v>357</v>
-      </c>
-      <c r="AN57" t="s" s="2">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="58">
-      <c r="A58" t="s" s="2">
-        <v>370</v>
-      </c>
-      <c r="B58" s="2"/>
-      <c r="C58" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="D58" s="2"/>
-      <c r="E58" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="F58" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="G58" t="s" s="2">
-        <v>53</v>
-      </c>
-      <c r="H58" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="I58" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="J58" t="s" s="2">
-        <v>371</v>
-      </c>
-      <c r="K58" t="s" s="2">
-        <v>372</v>
-      </c>
-      <c r="L58" t="s" s="2">
-        <v>373</v>
-      </c>
-      <c r="M58" s="2"/>
-      <c r="N58" s="2"/>
-      <c r="O58" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="P58" s="2"/>
-      <c r="Q58" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="R58" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="S58" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="T58" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="U58" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="V58" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="W58" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="X58" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="Y58" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="Z58" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AA58" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AB58" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AC58" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AD58" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AE58" t="s" s="2">
-        <v>370</v>
-      </c>
-      <c r="AF58" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AG58" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AH58" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AI58" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AJ58" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AK58" t="s" s="2">
-        <v>374</v>
-      </c>
-      <c r="AL58" t="s" s="2">
-        <v>375</v>
-      </c>
-      <c r="AM58" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AN58" t="s" s="2">
         <v>41</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AN58">
+  <autoFilter ref="A1:AN41">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -8019,7 +5902,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI57">
+  <conditionalFormatting sqref="A2:AI40">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>

--- a/output/SharedHealthSummary/condition-summary-1.xlsx
+++ b/output/SharedHealthSummary/condition-summary-1.xlsx
@@ -367,7 +367,7 @@
   </si>
   <si>
     <t>ele-1:All FHIR elements must have a @value or children {hasValue() | (children().count() &gt; id.count())}
-ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}inv-dh-cond-02:A practitioner shall conform to Base Practitioner, a patient shall conform to Base Patient, and a related person shall conform to Base RelatedPerson {Condition.extension('http://hl7.org.au/fhir/StructureDefinition/recorder').where(resolve() is Practitioner implies resolve().conformsTo('http://ns.electronichealth.net.au/ci/fhir/3.0/StructureDefinition/practitioner-dh-base-1')) and Condition.extension('http://hl7.org.au/fhir/StructureDefinition/recorder').where(resolve() is Patient implies resolve().conformsTo('http://ns.electronichealth.net.au/ci/fhir/3.0/StructureDefinition/patient-dh-base-1')) and Condition.extension('http://hl7.org.au/fhir/StructureDefinition/recorder').where(resolve() is RelatedPerson implies resolve().conformsTo('http://ns.electronichealth.net.au/ci/fhir/3.0/StructureDefinition/relatedperson-dh-base-1'))}</t>
+ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}ele-1:All FHIR elements must have a @value or children {hasValue() | (children().count() &gt; id.count())}ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}inv-dh-cond-02:A practitioner shall conform to Base Practitioner, a patient shall conform to Base Patient, and a related person shall conform to Base RelatedPerson {Condition.extension('http://hl7.org.au/fhir/StructureDefinition/recorder').where(resolve() is Practitioner implies resolve().conformsTo('http://ns.electronichealth.net.au/ci/fhir/3.0/StructureDefinition/practitioner-dh-base-1')) and Condition.extension('http://hl7.org.au/fhir/StructureDefinition/recorder').where(resolve() is Patient implies resolve().conformsTo('http://ns.electronichealth.net.au/ci/fhir/3.0/StructureDefinition/patient-dh-base-1')) and Condition.extension('http://hl7.org.au/fhir/StructureDefinition/recorder').where(resolve() is RelatedPerson implies resolve().conformsTo('http://ns.electronichealth.net.au/ci/fhir/3.0/StructureDefinition/relatedperson-dh-base-1'))}</t>
   </si>
   <si>
     <t>Condition.modifierExtension</t>

--- a/output/SharedHealthSummary/condition-summary-1.xlsx
+++ b/output/SharedHealthSummary/condition-summary-1.xlsx
@@ -367,7 +367,7 @@
   </si>
   <si>
     <t>ele-1:All FHIR elements must have a @value or children {hasValue() | (children().count() &gt; id.count())}
-ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}ele-1:All FHIR elements must have a @value or children {hasValue() | (children().count() &gt; id.count())}ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}inv-dh-cond-02:A practitioner shall conform to Base Practitioner, a patient shall conform to Base Patient, and a related person shall conform to Base RelatedPerson {Condition.extension('http://hl7.org.au/fhir/StructureDefinition/recorder').where(resolve() is Practitioner implies resolve().conformsTo('http://ns.electronichealth.net.au/ci/fhir/3.0/StructureDefinition/practitioner-dh-base-1')) and Condition.extension('http://hl7.org.au/fhir/StructureDefinition/recorder').where(resolve() is Patient implies resolve().conformsTo('http://ns.electronichealth.net.au/ci/fhir/3.0/StructureDefinition/patient-dh-base-1')) and Condition.extension('http://hl7.org.au/fhir/StructureDefinition/recorder').where(resolve() is RelatedPerson implies resolve().conformsTo('http://ns.electronichealth.net.au/ci/fhir/3.0/StructureDefinition/relatedperson-dh-base-1'))}</t>
+ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}inv-dh-cond-02:A practitioner shall conform to Base Practitioner, a patient shall conform to Base Patient, and a related person shall conform to Base RelatedPerson {Condition.extension('http://hl7.org.au/fhir/StructureDefinition/recorder').where(resolve() is Practitioner implies resolve().conformsTo('http://ns.electronichealth.net.au/ci/fhir/3.0/StructureDefinition/practitioner-dh-base-1')) and Condition.extension('http://hl7.org.au/fhir/StructureDefinition/recorder').where(resolve() is Patient implies resolve().conformsTo('http://ns.electronichealth.net.au/ci/fhir/3.0/StructureDefinition/patient-dh-base-1')) and Condition.extension('http://hl7.org.au/fhir/StructureDefinition/recorder').where(resolve() is RelatedPerson implies resolve().conformsTo('http://ns.electronichealth.net.au/ci/fhir/3.0/StructureDefinition/relatedperson-dh-base-1'))}</t>
   </si>
   <si>
     <t>Condition.modifierExtension</t>

--- a/output/SharedHealthSummary/condition-summary-1.xlsx
+++ b/output/SharedHealthSummary/condition-summary-1.xlsx
@@ -156,7 +156,7 @@
   </si>
   <si>
     <t>dom-2:If the resource is contained in another resource, it SHALL NOT contain nested Resources {contained.contained.empty()}
-dom-1:If the resource is contained in another resource, it SHALL NOT contain any narrative {contained.text.empty()}dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource {contained.where(('#'+id in %resource.descendants().reference).not()).empty()}con-4:If condition is abated, then clinicalStatus must be either inactive, resolved, or remission {abatement.empty() or (abatement as boolean).not()  or clinicalStatus='resolved' or clinicalStatus='remission' or clinicalStatus='inactive'}con-3:Condition.clinicalStatus SHALL be present if verificationStatus is not entered-in-error {verificationStatus='entered-in-error' or clinicalStatus.exists()}</t>
+dom-1:If the resource is contained in another resource, it SHALL NOT contain any narrative {contained.text.empty()}dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource {contained.where(('#'+id in %resource.descendants().reference).not()).empty()}con-4:If condition is abated, then clinicalStatus must be either inactive, resolved, or remission {abatement.empty() or (abatement as boolean).not()  or clinicalStatus='resolved' or clinicalStatus='remission' or clinicalStatus='inactive'}con-3:Condition.clinicalStatus SHALL be present if verificationStatus is not entered-in-error {verificationStatus='entered-in-error' or clinicalStatus.exists()}inv-dh-cond-01:The subject shall at least have a reference or an identifier with at least a system and a value {subject.reference.exists() or subject.identifier.where(system.count() + value.count() &gt;1).exists()}inv-dh-cond-03:If present, a recorder shall at least have a reference, an identifier or a display {recorder.exists() implies recorder.all($this.reference.exists() or $this.identifier.exists() or $this.display.exists())}</t>
   </si>
   <si>
     <t>&lt; 243796009 |Situation with explicit context|:
@@ -356,10 +356,10 @@
 </t>
   </si>
   <si>
-    <t>Who recorded the condition</t>
-  </si>
-  <si>
-    <t>Reference to an individual who recorded the condition and takes responsibility for its content.</t>
+    <t>Who recorded the record</t>
+  </si>
+  <si>
+    <t>Individual who recorded the record and takes responsibility for its content.</t>
   </si>
   <si>
     <t xml:space="preserve">ele-1
@@ -367,7 +367,7 @@
   </si>
   <si>
     <t>ele-1:All FHIR elements must have a @value or children {hasValue() | (children().count() &gt; id.count())}
-ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}inv-dh-cond-02:A practitioner shall conform to Base Practitioner, a patient shall conform to Base Patient, and a related person shall conform to Base RelatedPerson {Condition.extension('http://hl7.org.au/fhir/StructureDefinition/recorder').where(resolve() is Practitioner implies resolve().conformsTo('http://ns.electronichealth.net.au/ci/fhir/3.0/StructureDefinition/practitioner-dh-base-1')) and Condition.extension('http://hl7.org.au/fhir/StructureDefinition/recorder').where(resolve() is Patient implies resolve().conformsTo('http://ns.electronichealth.net.au/ci/fhir/3.0/StructureDefinition/patient-dh-base-1')) and Condition.extension('http://hl7.org.au/fhir/StructureDefinition/recorder').where(resolve() is RelatedPerson implies resolve().conformsTo('http://ns.electronichealth.net.au/ci/fhir/3.0/StructureDefinition/relatedperson-dh-base-1'))}</t>
+ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}inv-dh-cond-02:A practitioner shall conform to Base Practitioner, a patient shall conform to Base Patient, and a related person shall conform to Base RelatedPerson {all($this.valueReference.reference.exists() implies ($this.valueReference.reference.resolve().where($this is Practitioner).conformsTo('http://hl7.org/fhir/StructureDefinition/Practitioner') or $this.valueReference.reference.resolve().where($this is Patient).conformsTo('http://hl7.org/fhir/StructureDefinition/Patient') or $this.valueReference.reference.resolve().where($this is RelatedPerson).conformsTo('http://hl7.org/fhir/StructureDefinition/RelatedPerson')))}</t>
   </si>
   <si>
     <t>Condition.modifierExtension</t>
